--- a/cloud/azure/azure_環境構築_進捗管理.xlsx
+++ b/cloud/azure/azure_環境構築_進捗管理.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ainik\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5EAC56E-EDB3-4E34-9A06-4D2AF657F549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1994D4-D38D-4A24-8057-7F9D1D2A1214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{597582F9-50E7-4D0C-B411-9A0819763546}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="取り扱い" sheetId="4" r:id="rId1"/>
+    <sheet name="タスク" sheetId="1" r:id="rId2"/>
+    <sheet name="Azure概要理解" sheetId="2" r:id="rId3"/>
+    <sheet name="AZ900試験学習" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +27,195 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限日</t>
+    <rPh sb="0" eb="3">
+      <t>キゲンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Azure概要理解</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AZ900試験学習</t>
+    <rPh sb="5" eb="7">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手中</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルはGithub上で管理する</t>
+    <rPh sb="11" eb="12">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業が完了した時点でGithubに保存する</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pagesから最新版をダウンロードしてその後編集する</t>
+    <rPh sb="7" eb="10">
+      <t>サイシンバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MicrosoftLearn
+ryo-suzuki-bizはエイリアスのためainikuno.ameで登録することになった</t>
+    <rPh sb="52" eb="54">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにができた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MicrosoftLearnのアカウントを作成した
+・AZ900 学習ガイドを読んだ
+・コース-クラウド インフラストラクチャの概要 パス-クラウドの概念について説明する
+を完了した
+・コース-Azure のアーキテクチャとサービスについて説明するを開始した</t>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MicrosoftLearnのなんとなくの使い方を理解した。</t>
+    <rPh sb="22" eb="23">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AZ900 学習ガイド
+https://learn.microsoft.com/ja-jp/credentials/certifications/resources/study-guides/az-900
+コース(進行途中)
+https://learn.microsoft.com/ja-jp/training/paths/azure-fundamentals-describe-azure-architecture-services/</t>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +226,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -60,17 +258,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,10 +596,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA1EB32-4783-494E-8AE3-A125C57961E8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2FFFFE-ACD1-4E6C-A482-59829F0E53A7}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>46016</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46016</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Azure概要理解!A1" display="Azure概要理解" xr:uid="{48039E48-C9EC-4F4B-B563-DA504FCED52F}"/>
+    <hyperlink ref="B3" location="AZ900試験学習!A1" display="AZ900試験学習" xr:uid="{5A179086-F931-4CF2-B3E1-41A0CD32089F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D570A86-9104-4E99-B068-ED7B05C5BDDE}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.9140625" customWidth="1"/>
+    <col min="5" max="5" width="42.9140625" customWidth="1"/>
+    <col min="6" max="6" width="61.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>46016</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A28A8-AD11-4431-B37D-DFB0AA3F153C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
